--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Bmp4-Rgmb.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Bmp4-Rgmb.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -74,6 +74,9 @@
   </si>
   <si>
     <t>Edge total expression derived specificity</t>
+  </si>
+  <si>
+    <t>ECs</t>
   </si>
   <si>
     <t>FAPs</t>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>7.10527922474195</v>
+        <v>4.504599666666667</v>
       </c>
       <c r="H2">
-        <v>7.10527922474195</v>
+        <v>13.513799</v>
       </c>
       <c r="I2">
-        <v>0.7461567349632444</v>
+        <v>0.2870666703033801</v>
       </c>
       <c r="J2">
-        <v>0.7461567349632444</v>
+        <v>0.2870666703033801</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>34.5793427830215</v>
+        <v>9.249291999999999</v>
       </c>
       <c r="N2">
-        <v>34.5793427830215</v>
+        <v>27.747876</v>
       </c>
       <c r="O2">
-        <v>0.5817592430335849</v>
+        <v>0.1285586120341026</v>
       </c>
       <c r="P2">
-        <v>0.5817592430335849</v>
+        <v>0.1285586120341026</v>
       </c>
       <c r="Q2">
-        <v>245.6958858814332</v>
+        <v>41.66435766010266</v>
       </c>
       <c r="R2">
-        <v>245.6958858814332</v>
+        <v>374.979218940924</v>
       </c>
       <c r="S2">
-        <v>0.4340835773166283</v>
+        <v>0.03690489269545389</v>
       </c>
       <c r="T2">
-        <v>0.4340835773166283</v>
+        <v>0.03690489269545388</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>7.10527922474195</v>
+        <v>4.504599666666667</v>
       </c>
       <c r="H3">
-        <v>7.10527922474195</v>
+        <v>13.513799</v>
       </c>
       <c r="I3">
-        <v>0.7461567349632444</v>
+        <v>0.2870666703033801</v>
       </c>
       <c r="J3">
-        <v>0.7461567349632444</v>
+        <v>0.2870666703033801</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.64292629977725</v>
+        <v>35.42317866666667</v>
       </c>
       <c r="N3">
-        <v>3.64292629977725</v>
+        <v>106.269536</v>
       </c>
       <c r="O3">
-        <v>0.06128821070671513</v>
+        <v>0.492357110492641</v>
       </c>
       <c r="P3">
-        <v>0.06128821070671513</v>
+        <v>0.492357110492641</v>
       </c>
       <c r="Q3">
-        <v>25.88400855507336</v>
+        <v>159.5672388141404</v>
       </c>
       <c r="R3">
-        <v>25.88400855507336</v>
+        <v>1436.105149327264</v>
       </c>
       <c r="S3">
-        <v>0.04573061119266193</v>
+        <v>0.1413393163093158</v>
       </c>
       <c r="T3">
-        <v>0.04573061119266193</v>
+        <v>0.1413393163093159</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,123 +646,123 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>7.10527922474195</v>
+        <v>4.504599666666667</v>
       </c>
       <c r="H4">
-        <v>7.10527922474195</v>
+        <v>13.513799</v>
       </c>
       <c r="I4">
-        <v>0.7461567349632444</v>
+        <v>0.2870666703033801</v>
       </c>
       <c r="J4">
-        <v>0.7461567349632444</v>
+        <v>0.2870666703033801</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>21.2169975848135</v>
+        <v>3.703826</v>
       </c>
       <c r="N4">
-        <v>21.2169975848135</v>
+        <v>11.111478</v>
       </c>
       <c r="O4">
-        <v>0.3569525462596999</v>
+        <v>0.0514805597850973</v>
       </c>
       <c r="P4">
-        <v>0.3569525462596999</v>
+        <v>0.05148055978509729</v>
       </c>
       <c r="Q4">
-        <v>150.7526921507755</v>
+        <v>16.68425336499133</v>
       </c>
       <c r="R4">
-        <v>150.7526921507755</v>
+        <v>150.158280284922</v>
       </c>
       <c r="S4">
-        <v>0.2663425464539541</v>
+        <v>0.01477835288286197</v>
       </c>
       <c r="T4">
-        <v>0.2663425464539541</v>
+        <v>0.01477835288286197</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>2.41722307511594</v>
+        <v>4.504599666666667</v>
       </c>
       <c r="H5">
-        <v>2.41722307511594</v>
+        <v>13.513799</v>
       </c>
       <c r="I5">
-        <v>0.2538432650367555</v>
+        <v>0.2870666703033801</v>
       </c>
       <c r="J5">
-        <v>0.2538432650367555</v>
+        <v>0.2870666703033801</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>34.5793427830215</v>
+        <v>23.569813</v>
       </c>
       <c r="N5">
-        <v>34.5793427830215</v>
+        <v>70.709439</v>
       </c>
       <c r="O5">
-        <v>0.5817592430335849</v>
+        <v>0.3276037176881591</v>
       </c>
       <c r="P5">
-        <v>0.5817592430335849</v>
+        <v>0.3276037176881591</v>
       </c>
       <c r="Q5">
-        <v>83.58598529746342</v>
+        <v>106.1725717831957</v>
       </c>
       <c r="R5">
-        <v>83.58598529746342</v>
+        <v>955.5531460487611</v>
       </c>
       <c r="S5">
-        <v>0.1476756657169565</v>
+        <v>0.09404410841574837</v>
       </c>
       <c r="T5">
-        <v>0.1476756657169565</v>
+        <v>0.09404410841574838</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.41722307511594</v>
+        <v>7.480073</v>
       </c>
       <c r="H6">
-        <v>2.41722307511594</v>
+        <v>22.440219</v>
       </c>
       <c r="I6">
-        <v>0.2538432650367555</v>
+        <v>0.476686011772755</v>
       </c>
       <c r="J6">
-        <v>0.2538432650367555</v>
+        <v>0.476686011772755</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>3.64292629977725</v>
+        <v>9.249291999999999</v>
       </c>
       <c r="N6">
-        <v>3.64292629977725</v>
+        <v>27.747876</v>
       </c>
       <c r="O6">
-        <v>0.06128821070671513</v>
+        <v>0.1285586120341026</v>
       </c>
       <c r="P6">
-        <v>0.06128821070671513</v>
+        <v>0.1285586120341026</v>
       </c>
       <c r="Q6">
-        <v>8.805765512768296</v>
+        <v>69.18537935831598</v>
       </c>
       <c r="R6">
-        <v>8.805765512768296</v>
+        <v>622.6684142248439</v>
       </c>
       <c r="S6">
-        <v>0.0155575995140532</v>
+        <v>0.06128209204957729</v>
       </c>
       <c r="T6">
-        <v>0.0155575995140532</v>
+        <v>0.06128209204957728</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,61 +832,433 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.41722307511594</v>
+        <v>7.480073</v>
       </c>
       <c r="H7">
-        <v>2.41722307511594</v>
+        <v>22.440219</v>
       </c>
       <c r="I7">
-        <v>0.2538432650367555</v>
+        <v>0.476686011772755</v>
       </c>
       <c r="J7">
-        <v>0.2538432650367555</v>
+        <v>0.476686011772755</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>21.2169975848135</v>
+        <v>35.42317866666667</v>
       </c>
       <c r="N7">
-        <v>21.2169975848135</v>
+        <v>106.269536</v>
       </c>
       <c r="O7">
-        <v>0.3569525462596999</v>
+        <v>0.492357110492641</v>
       </c>
       <c r="P7">
-        <v>0.3569525462596999</v>
+        <v>0.492357110492641</v>
       </c>
       <c r="Q7">
-        <v>51.28621614669036</v>
+        <v>264.9679623187093</v>
       </c>
       <c r="R7">
-        <v>51.28621614669036</v>
+        <v>2384.711660868384</v>
       </c>
       <c r="S7">
-        <v>0.0906099998057457</v>
+        <v>0.2346997473686947</v>
       </c>
       <c r="T7">
-        <v>0.0906099998057457</v>
+        <v>0.2346997473686947</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>7.480073</v>
+      </c>
+      <c r="H8">
+        <v>22.440219</v>
+      </c>
+      <c r="I8">
+        <v>0.476686011772755</v>
+      </c>
+      <c r="J8">
+        <v>0.476686011772755</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>3.703826</v>
+      </c>
+      <c r="N8">
+        <v>11.111478</v>
+      </c>
+      <c r="O8">
+        <v>0.0514805597850973</v>
+      </c>
+      <c r="P8">
+        <v>0.05148055978509729</v>
+      </c>
+      <c r="Q8">
+        <v>27.704888859298</v>
+      </c>
+      <c r="R8">
+        <v>249.343999733682</v>
+      </c>
+      <c r="S8">
+        <v>0.02454006272778691</v>
+      </c>
+      <c r="T8">
+        <v>0.02454006272778691</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>7.480073</v>
+      </c>
+      <c r="H9">
+        <v>22.440219</v>
+      </c>
+      <c r="I9">
+        <v>0.476686011772755</v>
+      </c>
+      <c r="J9">
+        <v>0.476686011772755</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>23.569813</v>
+      </c>
+      <c r="N9">
+        <v>70.709439</v>
+      </c>
+      <c r="O9">
+        <v>0.3276037176881591</v>
+      </c>
+      <c r="P9">
+        <v>0.3276037176881591</v>
+      </c>
+      <c r="Q9">
+        <v>176.303921836349</v>
+      </c>
+      <c r="R9">
+        <v>1586.735296527141</v>
+      </c>
+      <c r="S9">
+        <v>0.1561641096266961</v>
+      </c>
+      <c r="T9">
+        <v>0.1561641096266961</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>3.707151333333333</v>
+      </c>
+      <c r="H10">
+        <v>11.121454</v>
+      </c>
+      <c r="I10">
+        <v>0.2362473179238649</v>
+      </c>
+      <c r="J10">
+        <v>0.2362473179238649</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>9.249291999999999</v>
+      </c>
+      <c r="N10">
+        <v>27.747876</v>
+      </c>
+      <c r="O10">
+        <v>0.1285586120341026</v>
+      </c>
+      <c r="P10">
+        <v>0.1285586120341026</v>
+      </c>
+      <c r="Q10">
+        <v>34.28852517018933</v>
+      </c>
+      <c r="R10">
+        <v>308.596726531704</v>
+      </c>
+      <c r="S10">
+        <v>0.03037162728907145</v>
+      </c>
+      <c r="T10">
+        <v>0.03037162728907144</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>3.707151333333333</v>
+      </c>
+      <c r="H11">
+        <v>11.121454</v>
+      </c>
+      <c r="I11">
+        <v>0.2362473179238649</v>
+      </c>
+      <c r="J11">
+        <v>0.2362473179238649</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>35.42317866666667</v>
+      </c>
+      <c r="N11">
+        <v>106.269536</v>
+      </c>
+      <c r="O11">
+        <v>0.492357110492641</v>
+      </c>
+      <c r="P11">
+        <v>0.492357110492641</v>
+      </c>
+      <c r="Q11">
+        <v>131.3190840250382</v>
+      </c>
+      <c r="R11">
+        <v>1181.871756225344</v>
+      </c>
+      <c r="S11">
+        <v>0.1163180468146304</v>
+      </c>
+      <c r="T11">
+        <v>0.1163180468146304</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>3.707151333333333</v>
+      </c>
+      <c r="H12">
+        <v>11.121454</v>
+      </c>
+      <c r="I12">
+        <v>0.2362473179238649</v>
+      </c>
+      <c r="J12">
+        <v>0.2362473179238649</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>3.703826</v>
+      </c>
+      <c r="N12">
+        <v>11.111478</v>
+      </c>
+      <c r="O12">
+        <v>0.0514805597850973</v>
+      </c>
+      <c r="P12">
+        <v>0.05148055978509729</v>
+      </c>
+      <c r="Q12">
+        <v>13.73064349433467</v>
+      </c>
+      <c r="R12">
+        <v>123.575791449012</v>
+      </c>
+      <c r="S12">
+        <v>0.01216214417444842</v>
+      </c>
+      <c r="T12">
+        <v>0.01216214417444842</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>3.707151333333333</v>
+      </c>
+      <c r="H13">
+        <v>11.121454</v>
+      </c>
+      <c r="I13">
+        <v>0.2362473179238649</v>
+      </c>
+      <c r="J13">
+        <v>0.2362473179238649</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>23.569813</v>
+      </c>
+      <c r="N13">
+        <v>70.709439</v>
+      </c>
+      <c r="O13">
+        <v>0.3276037176881591</v>
+      </c>
+      <c r="P13">
+        <v>0.3276037176881591</v>
+      </c>
+      <c r="Q13">
+        <v>87.37686368936734</v>
+      </c>
+      <c r="R13">
+        <v>786.391773204306</v>
+      </c>
+      <c r="S13">
+        <v>0.0773954996457146</v>
+      </c>
+      <c r="T13">
+        <v>0.07739549964571461</v>
       </c>
     </row>
   </sheetData>
